--- a/biology/Zoologie/Diversibipalium/Diversibipalium.xlsx
+++ b/biology/Zoologie/Diversibipalium/Diversibipalium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversibipalium est un genre de vers plats terrestres de la famille des Geoplanidae (sous-famille des Bipaliinae).
-Ce genre a été défini pour y inclure les espèces n'ayant pas suffisamment d'informations morphologiques pour leur permettre d'être classées dans un autre genre parmi les Bipaliinae[Publication originale 1],[1]. 
+Ce genre a été défini pour y inclure les espèces n'ayant pas suffisamment d'informations morphologiques pour leur permettre d'être classées dans un autre genre parmi les Bipaliinae[Publication originale 1],. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les Bipaliinae, les espèces de Diversibipalium présentent une tête en forme de marteau ou de demi-lune.
 </t>
@@ -543,13 +557,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Au cours de la seconde moitié du XIXe siècle et de la première moitié du XXe siècle, de nombreuses espèces de Plathelminthes terrestres ont été décrites principalement sur la base de leur morphologie externe. Or, les genres de Geoplanidae sont largement basés sur leur anatomie interne, en particulier l'anatomie de l'appareil copulateur. En conséquence, les espèces dont les descriptions sont trop anciennes pour que leur anatomie interne soit connue, ne peuvent pas être attribuées à un genre approprié.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la seconde moitié du XIXe siècle et de la première moitié du XXe siècle, de nombreuses espèces de Plathelminthes terrestres ont été décrites principalement sur la base de leur morphologie externe. Or, les genres de Geoplanidae sont largement basés sur leur anatomie interne, en particulier l'anatomie de l'appareil copulateur. En conséquence, les espèces dont les descriptions sont trop anciennes pour que leur anatomie interne soit connue, ne peuvent pas être attribuées à un genre approprié.
 C'est ainsi que le genre Diversibipalium a été créé en 2002, par Robert Edward Ogren (d), Eudóxia Maria Froehlich (d) et Gen-yu Sasaki (d), pour accueillir temporairement des espèces de la sous-famille des Bipaliinae dont l'anatomie de l'appareil copulateur reste inconnue[Publication originale 1].
-Le nom valide complet avec auteur de ce taxon est Diversibipalium Kawakatsu, Ogren, Froehlich &amp; Sasaki, 2002[2].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (18 janvier 2024)[2], le genre Diversibipalium contient les espèces valides suivantes :
+Le nom valide complet avec auteur de ce taxon est Diversibipalium Kawakatsu, Ogren, Froehlich &amp; Sasaki, 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diversibipalium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diversibipalium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (18 janvier 2024), le genre Diversibipalium contient les espèces valides suivantes :
 Diversibipalium andrewsi (Whitehouse, 1919)
 Diversibipalium bleekeri (Graff, 1898)
 Diversibipalium boehmigi (Müller, 1902)
@@ -632,9 +683,43 @@
 Diversibipalium vittatum (Loman, 1888)
 Diversibipalium weberi (Loman, 1890)
 Diversibipalium whitehousei (Ogren &amp; Kawakatsu, 1987)
-Diversibipalium wrighti (Graff, 1899)
-Espèces non valides
-D'après World Register of Marine Species                               (18 janvier 2024)[2], les espèces suivantes sont des noms oubliés :
+Diversibipalium wrighti (Graff, 1899)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diversibipalium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diversibipalium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces non valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (18 janvier 2024), les espèces suivantes sont des noms oubliés :
 Diversibipalium ellioti (Graff, 1899)
 Diversibipalium fenestratum (Graff, 1898)
 Diversibipalium gulliveri (Graff, 1899)
@@ -647,10 +732,10 @@
 Diversibipalium piceum (Graff, 1899)
 Diversibipalium simplex (Graff, 1898)
 Diversibipalium smithi (Graff, 1899)
-Les espèces suivantes sont douteuses (nomen dubium)[2] :
+Les espèces suivantes sont douteuses (nomen dubium) :
 Diversibipalium everetti (Houghton, 1870) ;
 Diversibipalium houghtoni (Moseley, 1874).
-Les espèces suivantes sont à investiguer (taxon inquirendum)[2] :
+Les espèces suivantes sont à investiguer (taxon inquirendum) :
 Diversibipalium fulvum (Kaburaki, 1922) ;
 Diversibipalium grayi (Wright, 1860) ;
 Diversibipalium ruteofulvum (Kaburaki, 1922) ;
